--- a/estate.xlsx
+++ b/estate.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zx/PDD/opensource_projects/books/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC02BDE4-AC06-5045-A736-CF87205192B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AC02BDE4-AC06-5045-A736-CF87205192B0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17540" windowWidth="28800" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="countSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="priceSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="countSheet" r:id="rId1" sheetId="1"/>
+    <sheet name="priceSheet" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="20">
   <si>
     <t>时间</t>
   </si>
@@ -70,12 +70,25 @@
   <si>
     <t>奉贤</t>
   </si>
+  <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-02-24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <numFmts count="0"/>
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -137,8 +150,248 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +414,168 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -213,82 +626,834 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="85">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="4" fontId="7" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="4" fontId="9" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="5" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="5" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="7" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="8" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="7" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="11" fillId="8" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="11" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="12" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="19" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="11" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="12" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="15" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="27" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="16" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="25" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="15" fontId="26" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="27" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="16" fontId="27" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="28" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="35" fillId="19" fontId="29" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="35" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="35" fillId="20" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="17" fontId="31" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="35" fillId="19" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="35" fillId="0" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="35" fillId="20" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="34" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="43" fillId="23" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="43" fillId="0" fontId="36" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="43" fillId="24" fontId="36" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="37" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="43" fillId="23" fontId="38" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="43" fillId="0" fontId="39" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="43" fillId="24" fontId="39" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="25" fontId="40" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="51" fillId="27" fontId="41" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="51" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="51" fillId="28" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="25" fontId="43" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="51" fillId="27" fontId="44" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="51" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="51" fillId="28" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="59" fillId="31" fontId="47" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="59" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="59" fillId="32" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="29" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="59" fillId="31" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="59" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="59" fillId="32" fontId="51" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="35" borderId="67" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="67" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="36" borderId="67" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="35" borderId="67" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="67" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="36" borderId="67" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -305,10 +1470,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -343,7 +1508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -395,7 +1560,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -506,21 +1671,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -537,7 +1702,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -589,15 +1754,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -605,57 +1770,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="17">
-      <c r="A1" s="7" t="s">
+    <row r="1">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="74" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18">
+    <row ht="18" r="2" spans="1:16">
       <c r="A2" s="18">
         <v>44244</v>
       </c>
@@ -705,7 +1870,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18">
+    <row ht="18" r="3" spans="1:16">
       <c r="A3" s="13">
         <v>44245</v>
       </c>
@@ -755,7 +1920,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18">
+    <row ht="18" r="4" spans="1:16">
       <c r="A4" s="17">
         <v>44246</v>
       </c>
@@ -803,17 +1968,217 @@
       </c>
       <c r="P4" s="6">
         <v>1437</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="23" t="n">
+        <v>811.0</v>
+      </c>
+      <c r="C5" s="24" t="n">
+        <v>1609.0</v>
+      </c>
+      <c r="D5" s="23" t="n">
+        <v>1589.0</v>
+      </c>
+      <c r="E5" s="24" t="n">
+        <v>2079.0</v>
+      </c>
+      <c r="F5" s="23" t="n">
+        <v>2222.0</v>
+      </c>
+      <c r="G5" s="24" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="H5" s="23" t="n">
+        <v>2149.0</v>
+      </c>
+      <c r="I5" s="24" t="n">
+        <v>3526.0</v>
+      </c>
+      <c r="J5" s="23" t="n">
+        <v>3417.0</v>
+      </c>
+      <c r="K5" s="24" t="n">
+        <v>2578.0</v>
+      </c>
+      <c r="L5" s="23" t="n">
+        <v>7524.0</v>
+      </c>
+      <c r="M5" s="24" t="n">
+        <v>940.0</v>
+      </c>
+      <c r="N5" s="23" t="n">
+        <v>2169.0</v>
+      </c>
+      <c r="O5" s="24" t="n">
+        <v>1126.0</v>
+      </c>
+      <c r="P5" s="23" t="n">
+        <v>1448.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="40" t="n">
+        <v>824.0</v>
+      </c>
+      <c r="C6" s="39" t="n">
+        <v>1670.0</v>
+      </c>
+      <c r="D6" s="40" t="n">
+        <v>1606.0</v>
+      </c>
+      <c r="E6" s="39" t="n">
+        <v>2131.0</v>
+      </c>
+      <c r="F6" s="40" t="n">
+        <v>2234.0</v>
+      </c>
+      <c r="G6" s="39" t="n">
+        <v>1049.0</v>
+      </c>
+      <c r="H6" s="40" t="n">
+        <v>2207.0</v>
+      </c>
+      <c r="I6" s="39" t="n">
+        <v>3691.0</v>
+      </c>
+      <c r="J6" s="40" t="n">
+        <v>3534.0</v>
+      </c>
+      <c r="K6" s="39" t="n">
+        <v>2634.0</v>
+      </c>
+      <c r="L6" s="40" t="n">
+        <v>7877.0</v>
+      </c>
+      <c r="M6" s="39" t="n">
+        <v>935.0</v>
+      </c>
+      <c r="N6" s="40" t="n">
+        <v>2216.0</v>
+      </c>
+      <c r="O6" s="39" t="n">
+        <v>1114.0</v>
+      </c>
+      <c r="P6" s="40" t="n">
+        <v>1459.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="55" t="n">
+        <v>829.0</v>
+      </c>
+      <c r="C7" s="56" t="n">
+        <v>1710.0</v>
+      </c>
+      <c r="D7" s="55" t="n">
+        <v>1628.0</v>
+      </c>
+      <c r="E7" s="56" t="n">
+        <v>2147.0</v>
+      </c>
+      <c r="F7" s="55" t="n">
+        <v>2259.0</v>
+      </c>
+      <c r="G7" s="56" t="n">
+        <v>1053.0</v>
+      </c>
+      <c r="H7" s="55" t="n">
+        <v>2243.0</v>
+      </c>
+      <c r="I7" s="56" t="n">
+        <v>3748.0</v>
+      </c>
+      <c r="J7" s="55" t="n">
+        <v>3545.0</v>
+      </c>
+      <c r="K7" s="56" t="n">
+        <v>2657.0</v>
+      </c>
+      <c r="L7" s="55" t="n">
+        <v>8024.0</v>
+      </c>
+      <c r="M7" s="56" t="n">
+        <v>943.0</v>
+      </c>
+      <c r="N7" s="55" t="n">
+        <v>2248.0</v>
+      </c>
+      <c r="O7" s="56" t="n">
+        <v>1139.0</v>
+      </c>
+      <c r="P7" s="55" t="n">
+        <v>1459.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="72" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="C8" s="71" t="n">
+        <v>1620.0</v>
+      </c>
+      <c r="D8" s="72" t="n">
+        <v>1655.0</v>
+      </c>
+      <c r="E8" s="71" t="n">
+        <v>2117.0</v>
+      </c>
+      <c r="F8" s="72" t="n">
+        <v>2254.0</v>
+      </c>
+      <c r="G8" s="71" t="n">
+        <v>1042.0</v>
+      </c>
+      <c r="H8" s="72" t="n">
+        <v>2243.0</v>
+      </c>
+      <c r="I8" s="71" t="n">
+        <v>3511.0</v>
+      </c>
+      <c r="J8" s="72" t="n">
+        <v>3482.0</v>
+      </c>
+      <c r="K8" s="71" t="n">
+        <v>2603.0</v>
+      </c>
+      <c r="L8" s="72" t="n">
+        <v>7446.0</v>
+      </c>
+      <c r="M8" s="71" t="n">
+        <v>934.0</v>
+      </c>
+      <c r="N8" s="72" t="n">
+        <v>2282.0</v>
+      </c>
+      <c r="O8" s="71" t="n">
+        <v>1176.0</v>
+      </c>
+      <c r="P8" s="72" t="n">
+        <v>1469.0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -821,57 +2186,57 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="17">
-      <c r="A1" s="10" t="s">
+    <row r="1">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="82" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18">
+    <row ht="18" r="2" spans="1:16">
       <c r="A2" s="20">
         <v>44244</v>
       </c>
@@ -921,7 +2286,7 @@
         <v>23922</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18">
+    <row ht="18" r="3" spans="1:16">
       <c r="A3" s="16">
         <v>44245</v>
       </c>
@@ -971,7 +2336,7 @@
         <v>23922</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18">
+    <row ht="18" r="4" spans="1:16">
       <c r="A4" s="19">
         <v>44246</v>
       </c>
@@ -1019,10 +2384,210 @@
       </c>
       <c r="P4" s="9">
         <v>23922</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="31" t="n">
+        <v>97924.0</v>
+      </c>
+      <c r="C5" s="32" t="n">
+        <v>89280.0</v>
+      </c>
+      <c r="D5" s="31" t="n">
+        <v>79378.0</v>
+      </c>
+      <c r="E5" s="32" t="n">
+        <v>81607.0</v>
+      </c>
+      <c r="F5" s="31" t="n">
+        <v>66519.0</v>
+      </c>
+      <c r="G5" s="32" t="n">
+        <v>74588.0</v>
+      </c>
+      <c r="H5" s="31" t="n">
+        <v>71425.0</v>
+      </c>
+      <c r="I5" s="32" t="n">
+        <v>62874.0</v>
+      </c>
+      <c r="J5" s="31" t="n">
+        <v>46231.0</v>
+      </c>
+      <c r="K5" s="32" t="n">
+        <v>35291.0</v>
+      </c>
+      <c r="L5" s="31" t="n">
+        <v>64214.0</v>
+      </c>
+      <c r="M5" s="32" t="n">
+        <v>19533.0</v>
+      </c>
+      <c r="N5" s="31" t="n">
+        <v>46369.0</v>
+      </c>
+      <c r="O5" s="32" t="n">
+        <v>46158.0</v>
+      </c>
+      <c r="P5" s="31" t="n">
+        <v>23922.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="48" t="n">
+        <v>97924.0</v>
+      </c>
+      <c r="C6" s="47" t="n">
+        <v>89280.0</v>
+      </c>
+      <c r="D6" s="48" t="n">
+        <v>79378.0</v>
+      </c>
+      <c r="E6" s="47" t="n">
+        <v>81607.0</v>
+      </c>
+      <c r="F6" s="48" t="n">
+        <v>66519.0</v>
+      </c>
+      <c r="G6" s="47" t="n">
+        <v>74588.0</v>
+      </c>
+      <c r="H6" s="48" t="n">
+        <v>71425.0</v>
+      </c>
+      <c r="I6" s="47" t="n">
+        <v>62874.0</v>
+      </c>
+      <c r="J6" s="48" t="n">
+        <v>46231.0</v>
+      </c>
+      <c r="K6" s="47" t="n">
+        <v>35291.0</v>
+      </c>
+      <c r="L6" s="48" t="n">
+        <v>64214.0</v>
+      </c>
+      <c r="M6" s="47" t="n">
+        <v>19533.0</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>46369.0</v>
+      </c>
+      <c r="O6" s="47" t="n">
+        <v>46158.0</v>
+      </c>
+      <c r="P6" s="48" t="n">
+        <v>23922.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="63" t="n">
+        <v>97924.0</v>
+      </c>
+      <c r="C7" s="64" t="n">
+        <v>89280.0</v>
+      </c>
+      <c r="D7" s="63" t="n">
+        <v>79378.0</v>
+      </c>
+      <c r="E7" s="64" t="n">
+        <v>81607.0</v>
+      </c>
+      <c r="F7" s="63" t="n">
+        <v>66519.0</v>
+      </c>
+      <c r="G7" s="64" t="n">
+        <v>74588.0</v>
+      </c>
+      <c r="H7" s="63" t="n">
+        <v>71425.0</v>
+      </c>
+      <c r="I7" s="64" t="n">
+        <v>62874.0</v>
+      </c>
+      <c r="J7" s="63" t="n">
+        <v>46231.0</v>
+      </c>
+      <c r="K7" s="64" t="n">
+        <v>35291.0</v>
+      </c>
+      <c r="L7" s="63" t="n">
+        <v>64214.0</v>
+      </c>
+      <c r="M7" s="64" t="n">
+        <v>19533.0</v>
+      </c>
+      <c r="N7" s="63" t="n">
+        <v>46369.0</v>
+      </c>
+      <c r="O7" s="64" t="n">
+        <v>46158.0</v>
+      </c>
+      <c r="P7" s="63" t="n">
+        <v>23922.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="80" t="n">
+        <v>97924.0</v>
+      </c>
+      <c r="C8" s="79" t="n">
+        <v>89280.0</v>
+      </c>
+      <c r="D8" s="80" t="n">
+        <v>79378.0</v>
+      </c>
+      <c r="E8" s="79" t="n">
+        <v>81607.0</v>
+      </c>
+      <c r="F8" s="80" t="n">
+        <v>66519.0</v>
+      </c>
+      <c r="G8" s="79" t="n">
+        <v>74588.0</v>
+      </c>
+      <c r="H8" s="80" t="n">
+        <v>71425.0</v>
+      </c>
+      <c r="I8" s="79" t="n">
+        <v>62874.0</v>
+      </c>
+      <c r="J8" s="80" t="n">
+        <v>46231.0</v>
+      </c>
+      <c r="K8" s="79" t="n">
+        <v>35291.0</v>
+      </c>
+      <c r="L8" s="80" t="n">
+        <v>64214.0</v>
+      </c>
+      <c r="M8" s="79" t="n">
+        <v>19533.0</v>
+      </c>
+      <c r="N8" s="80" t="n">
+        <v>46369.0</v>
+      </c>
+      <c r="O8" s="79" t="n">
+        <v>46158.0</v>
+      </c>
+      <c r="P8" s="80" t="n">
+        <v>23922.0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/estate.xlsx
+++ b/estate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="21">
   <si>
     <t>时间</t>
   </si>
@@ -82,13 +82,16 @@
   <si>
     <t>2021-02-24</t>
   </si>
+  <si>
+    <t>2021-02-26</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="58">
+  <fonts count="70">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -390,8 +393,68 @@
       <sz val="12.0"/>
       <color indexed="54"/>
     </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,8 +637,48 @@
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="68">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -1170,13 +1273,149 @@
         <color indexed="8"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1422,30 +1661,82 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="59" fillId="32" fontId="51" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="52" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="35" borderId="67" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="67" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="36" borderId="67" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="35" fontId="53" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="67" fillId="0" fontId="54" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="36" fontId="54" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="33" fontId="55" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="35" borderId="67" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="67" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="36" borderId="67" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="35" fontId="56" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="67" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="67" fillId="36" fontId="57" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="58" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="75" fillId="39" fontId="59" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="75" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="75" fillId="40" fontId="60" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="75" fillId="39" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="75" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="75" fillId="40" fontId="63" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="43" borderId="83" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="83" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="44" borderId="83" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="43" borderId="83" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="44" borderId="83" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1762,7 +2053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1771,52 +2062,52 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="90" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2168,6 +2459,56 @@
       </c>
       <c r="P8" s="72" t="n">
         <v>1469.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="87" t="n">
+        <v>835.0</v>
+      </c>
+      <c r="C9" s="88" t="n">
+        <v>1693.0</v>
+      </c>
+      <c r="D9" s="87" t="n">
+        <v>1687.0</v>
+      </c>
+      <c r="E9" s="88" t="n">
+        <v>2187.0</v>
+      </c>
+      <c r="F9" s="87" t="n">
+        <v>2300.0</v>
+      </c>
+      <c r="G9" s="88" t="n">
+        <v>1049.0</v>
+      </c>
+      <c r="H9" s="87" t="n">
+        <v>2268.0</v>
+      </c>
+      <c r="I9" s="88" t="n">
+        <v>3714.0</v>
+      </c>
+      <c r="J9" s="87" t="n">
+        <v>3589.0</v>
+      </c>
+      <c r="K9" s="88" t="n">
+        <v>2618.0</v>
+      </c>
+      <c r="L9" s="87" t="n">
+        <v>7819.0</v>
+      </c>
+      <c r="M9" s="88" t="n">
+        <v>935.0</v>
+      </c>
+      <c r="N9" s="87" t="n">
+        <v>2326.0</v>
+      </c>
+      <c r="O9" s="88" t="n">
+        <v>1195.0</v>
+      </c>
+      <c r="P9" s="87" t="n">
+        <v>1490.0</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2519,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -2187,52 +2528,52 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="82" t="s">
+      <c r="L1" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="82" t="s">
+      <c r="M1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="82" t="s">
+      <c r="N1" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="82" t="s">
+      <c r="O1" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="82" t="s">
+      <c r="P1" s="98" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2583,6 +2924,56 @@
         <v>46158.0</v>
       </c>
       <c r="P8" s="80" t="n">
+        <v>23922.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="95" t="n">
+        <v>97924.0</v>
+      </c>
+      <c r="C9" s="96" t="n">
+        <v>89280.0</v>
+      </c>
+      <c r="D9" s="95" t="n">
+        <v>79378.0</v>
+      </c>
+      <c r="E9" s="96" t="n">
+        <v>81607.0</v>
+      </c>
+      <c r="F9" s="95" t="n">
+        <v>66519.0</v>
+      </c>
+      <c r="G9" s="96" t="n">
+        <v>74588.0</v>
+      </c>
+      <c r="H9" s="95" t="n">
+        <v>71425.0</v>
+      </c>
+      <c r="I9" s="96" t="n">
+        <v>62874.0</v>
+      </c>
+      <c r="J9" s="95" t="n">
+        <v>46231.0</v>
+      </c>
+      <c r="K9" s="96" t="n">
+        <v>35291.0</v>
+      </c>
+      <c r="L9" s="95" t="n">
+        <v>64214.0</v>
+      </c>
+      <c r="M9" s="96" t="n">
+        <v>19533.0</v>
+      </c>
+      <c r="N9" s="95" t="n">
+        <v>46369.0</v>
+      </c>
+      <c r="O9" s="96" t="n">
+        <v>46158.0</v>
+      </c>
+      <c r="P9" s="95" t="n">
         <v>23922.0</v>
       </c>
     </row>

--- a/estate.xlsx
+++ b/estate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="33">
   <si>
     <t>时间</t>
   </si>
@@ -85,13 +85,49 @@
   <si>
     <t>2021-02-26</t>
   </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>2021-03-06</t>
+  </si>
+  <si>
+    <t>2021-03-07</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>2021-03-12</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>2021-03-17</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="70">
+  <fonts count="214">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -453,8 +489,728 @@
       <sz val="12.0"/>
       <color indexed="54"/>
     </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
   </fonts>
-  <fills count="45">
+  <fills count="141">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,8 +1433,488 @@
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="84">
+  <borders count="276">
     <border>
       <left/>
       <right/>
@@ -1409,13 +2645,1645 @@
         <color indexed="8"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="293">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1713,30 +4581,654 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="75" fillId="40" fontId="63" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="43" borderId="83" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="83" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="44" borderId="83" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="83" fillId="43" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="83" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="83" fillId="44" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="41" fontId="67" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="43" borderId="83" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="83" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="44" borderId="83" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="83" fillId="43" fontId="68" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="83" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="83" fillId="44" fontId="69" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="70" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="91" fillId="47" fontId="71" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="91" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="91" fillId="48" fontId="72" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="73" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="91" fillId="47" fontId="74" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="91" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="91" fillId="48" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="76" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="99" fillId="51" fontId="77" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="99" fillId="0" fontId="78" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="99" fillId="52" fontId="78" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="79" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="99" fillId="51" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="99" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="99" fillId="52" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="53" fontId="82" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="107" fillId="55" fontId="83" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="107" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="107" fillId="56" fontId="84" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="53" fontId="85" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="107" fillId="55" fontId="86" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="107" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="107" fillId="56" fontId="87" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="88" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="115" fillId="59" fontId="89" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="115" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="115" fillId="60" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="91" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="115" fillId="59" fontId="92" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="115" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="115" fillId="60" fontId="93" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="94" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="123" fillId="63" fontId="95" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="123" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="123" fillId="64" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="61" fontId="97" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="123" fillId="63" fontId="98" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="123" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="123" fillId="64" fontId="99" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="65" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="131" fillId="67" fontId="101" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="131" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="131" fillId="68" fontId="102" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="65" fontId="103" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="131" fillId="67" fontId="104" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="131" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="131" fillId="68" fontId="105" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="106" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="139" fillId="71" fontId="107" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="139" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="139" fillId="72" fontId="108" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="109" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="139" fillId="71" fontId="110" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="139" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="139" fillId="72" fontId="111" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="147" fillId="75" fontId="113" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="147" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="147" fillId="76" fontId="114" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="73" fontId="115" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="147" fillId="75" fontId="116" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="147" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="147" fillId="76" fontId="117" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="77" fontId="118" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="155" fillId="79" fontId="119" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="155" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="155" fillId="80" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="77" fontId="121" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="155" fillId="79" fontId="122" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="155" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="155" fillId="80" fontId="123" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="124" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="163" fillId="83" fontId="125" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="163" fillId="0" fontId="126" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="163" fillId="84" fontId="126" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="127" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="163" fillId="83" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="163" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="163" fillId="84" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="130" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="171" fillId="87" fontId="131" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="171" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="171" fillId="88" fontId="132" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="85" fontId="133" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="171" fillId="87" fontId="134" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="171" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="171" fillId="88" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="89" fontId="136" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="179" fillId="91" fontId="137" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="179" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="179" fillId="92" fontId="138" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="89" fontId="139" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="179" fillId="91" fontId="140" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="179" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="179" fillId="92" fontId="141" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="142" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="187" fillId="95" fontId="143" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="187" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="187" fillId="96" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="93" fontId="145" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="187" fillId="95" fontId="146" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="187" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="187" fillId="96" fontId="147" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="148" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="195" fillId="99" fontId="149" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="195" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="195" fillId="100" fontId="150" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="97" fontId="151" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="195" fillId="99" fontId="152" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="195" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="195" fillId="100" fontId="153" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="101" fontId="154" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="203" fillId="103" fontId="155" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="203" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="203" fillId="104" fontId="156" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="101" fontId="157" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="203" fillId="103" fontId="158" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="203" fillId="0" fontId="159" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="203" fillId="104" fontId="159" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="211" fillId="107" fontId="161" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="211" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="211" fillId="108" fontId="162" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="105" fontId="163" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="211" fillId="107" fontId="164" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="211" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="211" fillId="108" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="166" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="219" fillId="111" fontId="167" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="219" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="219" fillId="112" fontId="168" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="109" fontId="169" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="219" fillId="111" fontId="170" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="219" fillId="0" fontId="171" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="219" fillId="112" fontId="171" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="113" fontId="172" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="227" fillId="115" fontId="173" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="227" fillId="0" fontId="174" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="227" fillId="116" fontId="174" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="113" fontId="175" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="227" fillId="115" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="227" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="227" fillId="116" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="178" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="235" fillId="119" fontId="179" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="235" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="235" fillId="120" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="117" fontId="181" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="235" fillId="119" fontId="182" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="235" fillId="0" fontId="183" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="235" fillId="120" fontId="183" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="121" fontId="184" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="243" fillId="123" fontId="185" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="243" fillId="0" fontId="186" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="243" fillId="124" fontId="186" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="121" fontId="187" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="243" fillId="123" fontId="188" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="243" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="243" fillId="124" fontId="189" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="190" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="251" fillId="127" fontId="191" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="251" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="251" fillId="128" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="125" fontId="193" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="251" fillId="127" fontId="194" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="251" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="251" fillId="128" fontId="195" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="196" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="259" fillId="131" fontId="197" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="259" fillId="0" fontId="198" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="259" fillId="132" fontId="198" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="129" fontId="199" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="259" fillId="131" fontId="200" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="259" fillId="0" fontId="201" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="259" fillId="132" fontId="201" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="133" fontId="202" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="267" fillId="135" fontId="203" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="267" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="267" fillId="136" fontId="204" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="133" fontId="205" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="267" fillId="135" fontId="206" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="267" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="267" fillId="136" fontId="207" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="139" borderId="275" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="275" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="140" borderId="275" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="139" borderId="275" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="275" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="140" borderId="275" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2053,7 +5545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -2062,52 +5554,52 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="282" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="282" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="282" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="282" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="282" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="282" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="L1" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="90" t="s">
+      <c r="N1" s="282" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="90" t="s">
+      <c r="O1" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="90" t="s">
+      <c r="P1" s="282" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2509,6 +6001,606 @@
       </c>
       <c r="P9" s="87" t="n">
         <v>1490.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="104" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="C10" s="103" t="n">
+        <v>1724.0</v>
+      </c>
+      <c r="D10" s="104" t="n">
+        <v>1702.0</v>
+      </c>
+      <c r="E10" s="103" t="n">
+        <v>2186.0</v>
+      </c>
+      <c r="F10" s="104" t="n">
+        <v>2331.0</v>
+      </c>
+      <c r="G10" s="103" t="n">
+        <v>1058.0</v>
+      </c>
+      <c r="H10" s="104" t="n">
+        <v>2277.0</v>
+      </c>
+      <c r="I10" s="103" t="n">
+        <v>3824.0</v>
+      </c>
+      <c r="J10" s="104" t="n">
+        <v>3601.0</v>
+      </c>
+      <c r="K10" s="103" t="n">
+        <v>2631.0</v>
+      </c>
+      <c r="L10" s="104" t="n">
+        <v>7992.0</v>
+      </c>
+      <c r="M10" s="103" t="n">
+        <v>950.0</v>
+      </c>
+      <c r="N10" s="104" t="n">
+        <v>2336.0</v>
+      </c>
+      <c r="O10" s="103" t="n">
+        <v>1190.0</v>
+      </c>
+      <c r="P10" s="104" t="n">
+        <v>1479.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="119" t="n">
+        <v>846.0</v>
+      </c>
+      <c r="C11" s="120" t="n">
+        <v>1733.0</v>
+      </c>
+      <c r="D11" s="119" t="n">
+        <v>1700.0</v>
+      </c>
+      <c r="E11" s="120" t="n">
+        <v>2184.0</v>
+      </c>
+      <c r="F11" s="119" t="n">
+        <v>2324.0</v>
+      </c>
+      <c r="G11" s="120" t="n">
+        <v>1053.0</v>
+      </c>
+      <c r="H11" s="119" t="n">
+        <v>2285.0</v>
+      </c>
+      <c r="I11" s="120" t="n">
+        <v>3828.0</v>
+      </c>
+      <c r="J11" s="119" t="n">
+        <v>3600.0</v>
+      </c>
+      <c r="K11" s="120" t="n">
+        <v>2636.0</v>
+      </c>
+      <c r="L11" s="119" t="n">
+        <v>7988.0</v>
+      </c>
+      <c r="M11" s="120" t="n">
+        <v>954.0</v>
+      </c>
+      <c r="N11" s="119" t="n">
+        <v>2333.0</v>
+      </c>
+      <c r="O11" s="120" t="n">
+        <v>1184.0</v>
+      </c>
+      <c r="P11" s="119" t="n">
+        <v>1476.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="136" t="n">
+        <v>842.0</v>
+      </c>
+      <c r="C12" s="135" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="D12" s="136" t="n">
+        <v>1723.0</v>
+      </c>
+      <c r="E12" s="135" t="n">
+        <v>2220.0</v>
+      </c>
+      <c r="F12" s="136" t="n">
+        <v>2354.0</v>
+      </c>
+      <c r="G12" s="135" t="n">
+        <v>1054.0</v>
+      </c>
+      <c r="H12" s="136" t="n">
+        <v>2303.0</v>
+      </c>
+      <c r="I12" s="135" t="n">
+        <v>3923.0</v>
+      </c>
+      <c r="J12" s="136" t="n">
+        <v>3634.0</v>
+      </c>
+      <c r="K12" s="135" t="n">
+        <v>2687.0</v>
+      </c>
+      <c r="L12" s="136" t="n">
+        <v>8026.0</v>
+      </c>
+      <c r="M12" s="135" t="n">
+        <v>953.0</v>
+      </c>
+      <c r="N12" s="136" t="n">
+        <v>2322.0</v>
+      </c>
+      <c r="O12" s="135" t="n">
+        <v>1169.0</v>
+      </c>
+      <c r="P12" s="136" t="n">
+        <v>1481.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="151" t="n">
+        <v>839.0</v>
+      </c>
+      <c r="C13" s="152" t="n">
+        <v>1807.0</v>
+      </c>
+      <c r="D13" s="151" t="n">
+        <v>1732.0</v>
+      </c>
+      <c r="E13" s="152" t="n">
+        <v>2236.0</v>
+      </c>
+      <c r="F13" s="151" t="n">
+        <v>2418.0</v>
+      </c>
+      <c r="G13" s="152" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="H13" s="151" t="n">
+        <v>2311.0</v>
+      </c>
+      <c r="I13" s="152" t="n">
+        <v>4020.0</v>
+      </c>
+      <c r="J13" s="151" t="n">
+        <v>3694.0</v>
+      </c>
+      <c r="K13" s="152" t="n">
+        <v>2680.0</v>
+      </c>
+      <c r="L13" s="151" t="n">
+        <v>8255.0</v>
+      </c>
+      <c r="M13" s="152" t="n">
+        <v>952.0</v>
+      </c>
+      <c r="N13" s="151" t="n">
+        <v>2384.0</v>
+      </c>
+      <c r="O13" s="152" t="n">
+        <v>1158.0</v>
+      </c>
+      <c r="P13" s="151" t="n">
+        <v>1475.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="167" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="168" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="C14" s="167" t="n">
+        <v>1843.0</v>
+      </c>
+      <c r="D14" s="168" t="n">
+        <v>1743.0</v>
+      </c>
+      <c r="E14" s="167" t="n">
+        <v>2245.0</v>
+      </c>
+      <c r="F14" s="168" t="n">
+        <v>2438.0</v>
+      </c>
+      <c r="G14" s="167" t="n">
+        <v>1077.0</v>
+      </c>
+      <c r="H14" s="168" t="n">
+        <v>2314.0</v>
+      </c>
+      <c r="I14" s="167" t="n">
+        <v>4019.0</v>
+      </c>
+      <c r="J14" s="168" t="n">
+        <v>3751.0</v>
+      </c>
+      <c r="K14" s="167" t="n">
+        <v>2700.0</v>
+      </c>
+      <c r="L14" s="168" t="n">
+        <v>8324.0</v>
+      </c>
+      <c r="M14" s="167" t="n">
+        <v>959.0</v>
+      </c>
+      <c r="N14" s="168" t="n">
+        <v>2411.0</v>
+      </c>
+      <c r="O14" s="167" t="n">
+        <v>1176.0</v>
+      </c>
+      <c r="P14" s="168" t="n">
+        <v>1491.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="184" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="183" t="n">
+        <v>841.0</v>
+      </c>
+      <c r="C15" s="184" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="D15" s="183" t="n">
+        <v>1756.0</v>
+      </c>
+      <c r="E15" s="184" t="n">
+        <v>2260.0</v>
+      </c>
+      <c r="F15" s="183" t="n">
+        <v>2449.0</v>
+      </c>
+      <c r="G15" s="184" t="n">
+        <v>1077.0</v>
+      </c>
+      <c r="H15" s="183" t="n">
+        <v>2323.0</v>
+      </c>
+      <c r="I15" s="184" t="n">
+        <v>4096.0</v>
+      </c>
+      <c r="J15" s="183" t="n">
+        <v>3789.0</v>
+      </c>
+      <c r="K15" s="184" t="n">
+        <v>2689.0</v>
+      </c>
+      <c r="L15" s="183" t="n">
+        <v>8383.0</v>
+      </c>
+      <c r="M15" s="184" t="n">
+        <v>964.0</v>
+      </c>
+      <c r="N15" s="183" t="n">
+        <v>2364.0</v>
+      </c>
+      <c r="O15" s="184" t="n">
+        <v>1159.0</v>
+      </c>
+      <c r="P15" s="183" t="n">
+        <v>1486.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="200" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="C16" s="199" t="n">
+        <v>1833.0</v>
+      </c>
+      <c r="D16" s="200" t="n">
+        <v>1759.0</v>
+      </c>
+      <c r="E16" s="199" t="n">
+        <v>2254.0</v>
+      </c>
+      <c r="F16" s="200" t="n">
+        <v>2448.0</v>
+      </c>
+      <c r="G16" s="199" t="n">
+        <v>1083.0</v>
+      </c>
+      <c r="H16" s="200" t="n">
+        <v>2323.0</v>
+      </c>
+      <c r="I16" s="199" t="n">
+        <v>4140.0</v>
+      </c>
+      <c r="J16" s="200" t="n">
+        <v>3754.0</v>
+      </c>
+      <c r="K16" s="199" t="n">
+        <v>2676.0</v>
+      </c>
+      <c r="L16" s="200" t="n">
+        <v>8421.0</v>
+      </c>
+      <c r="M16" s="199" t="n">
+        <v>969.0</v>
+      </c>
+      <c r="N16" s="200" t="n">
+        <v>2372.0</v>
+      </c>
+      <c r="O16" s="199" t="n">
+        <v>1143.0</v>
+      </c>
+      <c r="P16" s="200" t="n">
+        <v>1479.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="216" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="215" t="n">
+        <v>843.0</v>
+      </c>
+      <c r="C17" s="216" t="n">
+        <v>1848.0</v>
+      </c>
+      <c r="D17" s="215" t="n">
+        <v>1766.0</v>
+      </c>
+      <c r="E17" s="216" t="n">
+        <v>2255.0</v>
+      </c>
+      <c r="F17" s="215" t="n">
+        <v>2438.0</v>
+      </c>
+      <c r="G17" s="216" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="H17" s="215" t="n">
+        <v>2327.0</v>
+      </c>
+      <c r="I17" s="216" t="n">
+        <v>4164.0</v>
+      </c>
+      <c r="J17" s="215" t="n">
+        <v>3736.0</v>
+      </c>
+      <c r="K17" s="216" t="n">
+        <v>2666.0</v>
+      </c>
+      <c r="L17" s="215" t="n">
+        <v>8498.0</v>
+      </c>
+      <c r="M17" s="216" t="n">
+        <v>952.0</v>
+      </c>
+      <c r="N17" s="215" t="n">
+        <v>2368.0</v>
+      </c>
+      <c r="O17" s="216" t="n">
+        <v>1151.0</v>
+      </c>
+      <c r="P17" s="215" t="n">
+        <v>1471.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="231" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="232" t="n">
+        <v>830.0</v>
+      </c>
+      <c r="C18" s="231" t="n">
+        <v>1891.0</v>
+      </c>
+      <c r="D18" s="232" t="n">
+        <v>1772.0</v>
+      </c>
+      <c r="E18" s="231" t="n">
+        <v>2289.0</v>
+      </c>
+      <c r="F18" s="232" t="n">
+        <v>2420.0</v>
+      </c>
+      <c r="G18" s="231" t="n">
+        <v>1089.0</v>
+      </c>
+      <c r="H18" s="232" t="n">
+        <v>2352.0</v>
+      </c>
+      <c r="I18" s="231" t="n">
+        <v>4216.0</v>
+      </c>
+      <c r="J18" s="232" t="n">
+        <v>3740.0</v>
+      </c>
+      <c r="K18" s="231" t="n">
+        <v>2663.0</v>
+      </c>
+      <c r="L18" s="232" t="n">
+        <v>8593.0</v>
+      </c>
+      <c r="M18" s="231" t="n">
+        <v>945.0</v>
+      </c>
+      <c r="N18" s="232" t="n">
+        <v>2384.0</v>
+      </c>
+      <c r="O18" s="231" t="n">
+        <v>1178.0</v>
+      </c>
+      <c r="P18" s="232" t="n">
+        <v>1475.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="248" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="247" t="n">
+        <v>836.0</v>
+      </c>
+      <c r="C19" s="248" t="n">
+        <v>1938.0</v>
+      </c>
+      <c r="D19" s="247" t="n">
+        <v>1758.0</v>
+      </c>
+      <c r="E19" s="248" t="n">
+        <v>2287.0</v>
+      </c>
+      <c r="F19" s="247" t="n">
+        <v>2445.0</v>
+      </c>
+      <c r="G19" s="248" t="n">
+        <v>1082.0</v>
+      </c>
+      <c r="H19" s="247" t="n">
+        <v>2335.0</v>
+      </c>
+      <c r="I19" s="248" t="n">
+        <v>4266.0</v>
+      </c>
+      <c r="J19" s="247" t="n">
+        <v>3686.0</v>
+      </c>
+      <c r="K19" s="248" t="n">
+        <v>2651.0</v>
+      </c>
+      <c r="L19" s="247" t="n">
+        <v>8663.0</v>
+      </c>
+      <c r="M19" s="248" t="n">
+        <v>940.0</v>
+      </c>
+      <c r="N19" s="247" t="n">
+        <v>2380.0</v>
+      </c>
+      <c r="O19" s="248" t="n">
+        <v>1147.0</v>
+      </c>
+      <c r="P19" s="247" t="n">
+        <v>1449.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="263" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="264" t="n">
+        <v>827.0</v>
+      </c>
+      <c r="C20" s="263" t="n">
+        <v>1951.0</v>
+      </c>
+      <c r="D20" s="264" t="n">
+        <v>1756.0</v>
+      </c>
+      <c r="E20" s="263" t="n">
+        <v>2284.0</v>
+      </c>
+      <c r="F20" s="264" t="n">
+        <v>2437.0</v>
+      </c>
+      <c r="G20" s="263" t="n">
+        <v>1090.0</v>
+      </c>
+      <c r="H20" s="264" t="n">
+        <v>2321.0</v>
+      </c>
+      <c r="I20" s="263" t="n">
+        <v>4267.0</v>
+      </c>
+      <c r="J20" s="264" t="n">
+        <v>3672.0</v>
+      </c>
+      <c r="K20" s="263" t="n">
+        <v>2627.0</v>
+      </c>
+      <c r="L20" s="264" t="n">
+        <v>8672.0</v>
+      </c>
+      <c r="M20" s="263" t="n">
+        <v>939.0</v>
+      </c>
+      <c r="N20" s="264" t="n">
+        <v>2378.0</v>
+      </c>
+      <c r="O20" s="263" t="n">
+        <v>1142.0</v>
+      </c>
+      <c r="P20" s="264" t="n">
+        <v>1440.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="280" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="279" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="C21" s="280" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="D21" s="279" t="n">
+        <v>1765.0</v>
+      </c>
+      <c r="E21" s="280" t="n">
+        <v>2291.0</v>
+      </c>
+      <c r="F21" s="279" t="n">
+        <v>2451.0</v>
+      </c>
+      <c r="G21" s="280" t="n">
+        <v>1093.0</v>
+      </c>
+      <c r="H21" s="279" t="n">
+        <v>2290.0</v>
+      </c>
+      <c r="I21" s="280" t="n">
+        <v>4276.0</v>
+      </c>
+      <c r="J21" s="279" t="n">
+        <v>3669.0</v>
+      </c>
+      <c r="K21" s="280" t="n">
+        <v>2628.0</v>
+      </c>
+      <c r="L21" s="279" t="n">
+        <v>8649.0</v>
+      </c>
+      <c r="M21" s="280" t="n">
+        <v>932.0</v>
+      </c>
+      <c r="N21" s="279" t="n">
+        <v>2379.0</v>
+      </c>
+      <c r="O21" s="280" t="n">
+        <v>1143.0</v>
+      </c>
+      <c r="P21" s="279" t="n">
+        <v>1418.0</v>
       </c>
     </row>
   </sheetData>
@@ -2519,7 +6611,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -2528,52 +6620,52 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="290" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="290" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="290" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="290" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="290" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="290" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="290" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="290" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="290" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="290" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="290" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="98" t="s">
+      <c r="N1" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="98" t="s">
+      <c r="O1" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="98" t="s">
+      <c r="P1" s="290" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2975,6 +7067,606 @@
       </c>
       <c r="P9" s="95" t="n">
         <v>23922.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="112" t="n">
+        <v>97924.0</v>
+      </c>
+      <c r="C10" s="111" t="n">
+        <v>89280.0</v>
+      </c>
+      <c r="D10" s="112" t="n">
+        <v>79378.0</v>
+      </c>
+      <c r="E10" s="111" t="n">
+        <v>81607.0</v>
+      </c>
+      <c r="F10" s="112" t="n">
+        <v>66519.0</v>
+      </c>
+      <c r="G10" s="111" t="n">
+        <v>74588.0</v>
+      </c>
+      <c r="H10" s="112" t="n">
+        <v>71425.0</v>
+      </c>
+      <c r="I10" s="111" t="n">
+        <v>62874.0</v>
+      </c>
+      <c r="J10" s="112" t="n">
+        <v>46231.0</v>
+      </c>
+      <c r="K10" s="111" t="n">
+        <v>35291.0</v>
+      </c>
+      <c r="L10" s="112" t="n">
+        <v>64214.0</v>
+      </c>
+      <c r="M10" s="111" t="n">
+        <v>19533.0</v>
+      </c>
+      <c r="N10" s="112" t="n">
+        <v>46369.0</v>
+      </c>
+      <c r="O10" s="111" t="n">
+        <v>46158.0</v>
+      </c>
+      <c r="P10" s="112" t="n">
+        <v>23922.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="128" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="127" t="n">
+        <v>97924.0</v>
+      </c>
+      <c r="C11" s="128" t="n">
+        <v>89280.0</v>
+      </c>
+      <c r="D11" s="127" t="n">
+        <v>79378.0</v>
+      </c>
+      <c r="E11" s="128" t="n">
+        <v>81607.0</v>
+      </c>
+      <c r="F11" s="127" t="n">
+        <v>66519.0</v>
+      </c>
+      <c r="G11" s="128" t="n">
+        <v>74588.0</v>
+      </c>
+      <c r="H11" s="127" t="n">
+        <v>71425.0</v>
+      </c>
+      <c r="I11" s="128" t="n">
+        <v>62874.0</v>
+      </c>
+      <c r="J11" s="127" t="n">
+        <v>46231.0</v>
+      </c>
+      <c r="K11" s="128" t="n">
+        <v>35291.0</v>
+      </c>
+      <c r="L11" s="127" t="n">
+        <v>64214.0</v>
+      </c>
+      <c r="M11" s="128" t="n">
+        <v>19533.0</v>
+      </c>
+      <c r="N11" s="127" t="n">
+        <v>46369.0</v>
+      </c>
+      <c r="O11" s="128" t="n">
+        <v>46158.0</v>
+      </c>
+      <c r="P11" s="127" t="n">
+        <v>23922.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="144" t="n">
+        <v>97924.0</v>
+      </c>
+      <c r="C12" s="143" t="n">
+        <v>89280.0</v>
+      </c>
+      <c r="D12" s="144" t="n">
+        <v>79378.0</v>
+      </c>
+      <c r="E12" s="143" t="n">
+        <v>81607.0</v>
+      </c>
+      <c r="F12" s="144" t="n">
+        <v>66519.0</v>
+      </c>
+      <c r="G12" s="143" t="n">
+        <v>74588.0</v>
+      </c>
+      <c r="H12" s="144" t="n">
+        <v>71425.0</v>
+      </c>
+      <c r="I12" s="143" t="n">
+        <v>62874.0</v>
+      </c>
+      <c r="J12" s="144" t="n">
+        <v>46231.0</v>
+      </c>
+      <c r="K12" s="143" t="n">
+        <v>35291.0</v>
+      </c>
+      <c r="L12" s="144" t="n">
+        <v>64214.0</v>
+      </c>
+      <c r="M12" s="143" t="n">
+        <v>19533.0</v>
+      </c>
+      <c r="N12" s="144" t="n">
+        <v>46369.0</v>
+      </c>
+      <c r="O12" s="143" t="n">
+        <v>46158.0</v>
+      </c>
+      <c r="P12" s="144" t="n">
+        <v>23922.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="160" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="159" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C13" s="160" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D13" s="159" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E13" s="160" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F13" s="159" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G13" s="160" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H13" s="159" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I13" s="160" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J13" s="159" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K13" s="160" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L13" s="159" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M13" s="160" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N13" s="159" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O13" s="160" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P13" s="159" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="175" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="176" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C14" s="175" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D14" s="176" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E14" s="175" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F14" s="176" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G14" s="175" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H14" s="176" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I14" s="175" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J14" s="176" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K14" s="175" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L14" s="176" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M14" s="175" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N14" s="176" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O14" s="175" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P14" s="176" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="192" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="191" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C15" s="192" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D15" s="191" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E15" s="192" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F15" s="191" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G15" s="192" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H15" s="191" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I15" s="192" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J15" s="191" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K15" s="192" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L15" s="191" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M15" s="192" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N15" s="191" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O15" s="192" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P15" s="191" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="207" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="208" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C16" s="207" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D16" s="208" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E16" s="207" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F16" s="208" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G16" s="207" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H16" s="208" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I16" s="207" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J16" s="208" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K16" s="207" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L16" s="208" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M16" s="207" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N16" s="208" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O16" s="207" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P16" s="208" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="224" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="223" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C17" s="224" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D17" s="223" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E17" s="224" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F17" s="223" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G17" s="224" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H17" s="223" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I17" s="224" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J17" s="223" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K17" s="224" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L17" s="223" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M17" s="224" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N17" s="223" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O17" s="224" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P17" s="223" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="239" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="240" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C18" s="239" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D18" s="240" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E18" s="239" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F18" s="240" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G18" s="239" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H18" s="240" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I18" s="239" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J18" s="240" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K18" s="239" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L18" s="240" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M18" s="239" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N18" s="240" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O18" s="239" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P18" s="240" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="256" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="255" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C19" s="256" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D19" s="255" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E19" s="256" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F19" s="255" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G19" s="256" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H19" s="255" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I19" s="256" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J19" s="255" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K19" s="256" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L19" s="255" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M19" s="256" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N19" s="255" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O19" s="256" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P19" s="255" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="271" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="272" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C20" s="271" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D20" s="272" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E20" s="271" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F20" s="272" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G20" s="271" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H20" s="272" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I20" s="271" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J20" s="272" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K20" s="271" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L20" s="272" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M20" s="271" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N20" s="272" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O20" s="271" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P20" s="272" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="288" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="287" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C21" s="288" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D21" s="287" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E21" s="288" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F21" s="287" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G21" s="288" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H21" s="287" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I21" s="288" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J21" s="287" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K21" s="288" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L21" s="287" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M21" s="288" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N21" s="287" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O21" s="288" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P21" s="287" t="n">
+        <v>24317.0</v>
       </c>
     </row>
   </sheetData>

--- a/estate.xlsx
+++ b/estate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="43">
   <si>
     <t>时间</t>
   </si>
@@ -121,13 +121,43 @@
   <si>
     <t>2021-03-19</t>
   </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>2021-03-28</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-04-11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="214">
+  <fonts count="346">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1209,8 +1239,668 @@
       <sz val="12.0"/>
       <color indexed="54"/>
     </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
   </fonts>
-  <fills count="141">
+  <fills count="229">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1913,8 +2603,448 @@
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="276">
+  <borders count="452">
     <border>
       <left/>
       <right/>
@@ -4277,13 +5407,1509 @@
         <color indexed="8"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="469">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5205,30 +7831,602 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="267" fillId="136" fontId="207" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="139" borderId="275" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="275" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="210" fillId="140" borderId="275" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="211" fillId="137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="275" fillId="139" fontId="209" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="275" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="275" fillId="140" fontId="210" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="137" fontId="211" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="139" borderId="275" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="0" borderId="275" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="213" fillId="140" borderId="275" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="275" fillId="139" fontId="212" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="275" fillId="0" fontId="213" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="275" fillId="140" fontId="213" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="214" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="283" fillId="143" fontId="215" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="283" fillId="0" fontId="216" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="283" fillId="144" fontId="216" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="217" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="283" fillId="143" fontId="218" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="283" fillId="0" fontId="219" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="283" fillId="144" fontId="219" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="145" fontId="220" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="291" fillId="147" fontId="221" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="291" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="291" fillId="148" fontId="222" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="145" fontId="223" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="291" fillId="147" fontId="224" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="291" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="291" fillId="148" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="226" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="299" fillId="151" fontId="227" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="299" fillId="0" fontId="228" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="299" fillId="152" fontId="228" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="149" fontId="229" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="299" fillId="151" fontId="230" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="299" fillId="0" fontId="231" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="299" fillId="152" fontId="231" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="232" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="307" fillId="155" fontId="233" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="307" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="307" fillId="156" fontId="234" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="235" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="307" fillId="155" fontId="236" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="307" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="307" fillId="156" fontId="237" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="157" fontId="238" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="315" fillId="159" fontId="239" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="315" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="315" fillId="160" fontId="240" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="157" fontId="241" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="315" fillId="159" fontId="242" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="315" fillId="0" fontId="243" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="315" fillId="160" fontId="243" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="161" fontId="244" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="323" fillId="163" fontId="245" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="323" fillId="0" fontId="246" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="323" fillId="164" fontId="246" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="161" fontId="247" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="323" fillId="163" fontId="248" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="323" fillId="0" fontId="249" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="323" fillId="164" fontId="249" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="250" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="331" fillId="167" fontId="251" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="331" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="331" fillId="168" fontId="252" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="253" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="331" fillId="167" fontId="254" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="331" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="331" fillId="168" fontId="255" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="169" fontId="256" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="339" fillId="171" fontId="257" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="339" fillId="0" fontId="258" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="339" fillId="172" fontId="258" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="169" fontId="259" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="339" fillId="171" fontId="260" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="339" fillId="0" fontId="261" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="339" fillId="172" fontId="261" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="173" fontId="262" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="347" fillId="175" fontId="263" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="347" fillId="0" fontId="264" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="347" fillId="176" fontId="264" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="173" fontId="265" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="347" fillId="175" fontId="266" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="347" fillId="0" fontId="267" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="347" fillId="176" fontId="267" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="268" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="355" fillId="179" fontId="269" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="355" fillId="0" fontId="270" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="355" fillId="180" fontId="270" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="271" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="355" fillId="179" fontId="272" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="355" fillId="0" fontId="273" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="355" fillId="180" fontId="273" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="274" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="363" fillId="183" fontId="275" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="363" fillId="0" fontId="276" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="363" fillId="184" fontId="276" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="181" fontId="277" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="363" fillId="183" fontId="278" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="363" fillId="0" fontId="279" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="363" fillId="184" fontId="279" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="185" fontId="280" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="371" fillId="187" fontId="281" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="371" fillId="0" fontId="282" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="371" fillId="188" fontId="282" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="185" fontId="283" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="371" fillId="187" fontId="284" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="371" fillId="0" fontId="285" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="371" fillId="188" fontId="285" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="286" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="379" fillId="191" fontId="287" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="379" fillId="0" fontId="288" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="379" fillId="192" fontId="288" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="289" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="379" fillId="191" fontId="290" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="379" fillId="0" fontId="291" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="379" fillId="192" fontId="291" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="292" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="387" fillId="195" fontId="293" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="387" fillId="0" fontId="294" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="387" fillId="196" fontId="294" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="193" fontId="295" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="387" fillId="195" fontId="296" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="387" fillId="0" fontId="297" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="387" fillId="196" fontId="297" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="197" fontId="298" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="395" fillId="199" fontId="299" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="395" fillId="0" fontId="300" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="395" fillId="200" fontId="300" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="197" fontId="301" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="395" fillId="199" fontId="302" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="395" fillId="0" fontId="303" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="395" fillId="200" fontId="303" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="304" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="403" fillId="203" fontId="305" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="403" fillId="0" fontId="306" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="403" fillId="204" fontId="306" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="307" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="403" fillId="203" fontId="308" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="403" fillId="0" fontId="309" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="403" fillId="204" fontId="309" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="310" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="411" fillId="207" fontId="311" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="411" fillId="0" fontId="312" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="411" fillId="208" fontId="312" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="205" fontId="313" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="411" fillId="207" fontId="314" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="411" fillId="0" fontId="315" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="411" fillId="208" fontId="315" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="209" fontId="316" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="419" fillId="211" fontId="317" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="419" fillId="0" fontId="318" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="419" fillId="212" fontId="318" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="209" fontId="319" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="419" fillId="211" fontId="320" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="419" fillId="0" fontId="321" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="419" fillId="212" fontId="321" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="322" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="427" fillId="215" fontId="323" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="427" fillId="0" fontId="324" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="427" fillId="216" fontId="324" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="325" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="427" fillId="215" fontId="326" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="427" fillId="0" fontId="327" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="427" fillId="216" fontId="327" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="328" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="435" fillId="219" fontId="329" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="435" fillId="0" fontId="330" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="435" fillId="220" fontId="330" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="217" fontId="331" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="435" fillId="219" fontId="332" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="435" fillId="0" fontId="333" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="435" fillId="220" fontId="333" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="221" fontId="334" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="443" fillId="223" fontId="335" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="443" fillId="0" fontId="336" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="443" fillId="224" fontId="336" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="221" fontId="337" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="443" fillId="223" fontId="338" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="443" fillId="0" fontId="339" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="443" fillId="224" fontId="339" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="227" borderId="451" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="451" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="228" borderId="451" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="227" borderId="451" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="451" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="228" borderId="451" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -5545,7 +8743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -5554,52 +8752,52 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="458" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="282" t="s">
+      <c r="B1" s="458" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="282" t="s">
+      <c r="C1" s="458" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="282" t="s">
+      <c r="D1" s="458" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="282" t="s">
+      <c r="E1" s="458" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="282" t="s">
+      <c r="F1" s="458" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="282" t="s">
+      <c r="G1" s="458" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="282" t="s">
+      <c r="H1" s="458" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="282" t="s">
+      <c r="I1" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="282" t="s">
+      <c r="J1" s="458" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="282" t="s">
+      <c r="K1" s="458" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="282" t="s">
+      <c r="L1" s="458" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="282" t="s">
+      <c r="M1" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="282" t="s">
+      <c r="N1" s="458" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="282" t="s">
+      <c r="O1" s="458" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="282" t="s">
+      <c r="P1" s="458" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6601,6 +9799,556 @@
       </c>
       <c r="P21" s="279" t="n">
         <v>1418.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="295" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="296" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="C22" s="295" t="n">
+        <v>1123.0</v>
+      </c>
+      <c r="D22" s="296" t="n">
+        <v>828.0</v>
+      </c>
+      <c r="E22" s="295" t="n">
+        <v>1020.0</v>
+      </c>
+      <c r="F22" s="296" t="n">
+        <v>1012.0</v>
+      </c>
+      <c r="G22" s="295" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="H22" s="296" t="n">
+        <v>933.0</v>
+      </c>
+      <c r="I22" s="295" t="n">
+        <v>2201.0</v>
+      </c>
+      <c r="J22" s="296" t="n">
+        <v>1887.0</v>
+      </c>
+      <c r="K22" s="295" t="n">
+        <v>947.0</v>
+      </c>
+      <c r="L22" s="296" t="n">
+        <v>3790.0</v>
+      </c>
+      <c r="M22" s="295" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="N22" s="296" t="n">
+        <v>923.0</v>
+      </c>
+      <c r="O22" s="295" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="P22" s="296" t="n">
+        <v>549.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="312" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="311" t="n">
+        <v>364.0</v>
+      </c>
+      <c r="C23" s="312" t="n">
+        <v>1286.0</v>
+      </c>
+      <c r="D23" s="311" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="E23" s="312" t="n">
+        <v>1122.0</v>
+      </c>
+      <c r="F23" s="311" t="n">
+        <v>1199.0</v>
+      </c>
+      <c r="G23" s="312" t="n">
+        <v>567.0</v>
+      </c>
+      <c r="H23" s="311" t="n">
+        <v>1148.0</v>
+      </c>
+      <c r="I23" s="312" t="n">
+        <v>2710.0</v>
+      </c>
+      <c r="J23" s="311" t="n">
+        <v>2219.0</v>
+      </c>
+      <c r="K23" s="312" t="n">
+        <v>1027.0</v>
+      </c>
+      <c r="L23" s="311" t="n">
+        <v>4672.0</v>
+      </c>
+      <c r="M23" s="312" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="N23" s="311" t="n">
+        <v>1140.0</v>
+      </c>
+      <c r="O23" s="312" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="P23" s="311" t="n">
+        <v>693.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="327" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="328" t="n">
+        <v>454.0</v>
+      </c>
+      <c r="C24" s="327" t="n">
+        <v>1425.0</v>
+      </c>
+      <c r="D24" s="328" t="n">
+        <v>1120.0</v>
+      </c>
+      <c r="E24" s="327" t="n">
+        <v>1336.0</v>
+      </c>
+      <c r="F24" s="328" t="n">
+        <v>1343.0</v>
+      </c>
+      <c r="G24" s="327" t="n">
+        <v>661.0</v>
+      </c>
+      <c r="H24" s="328" t="n">
+        <v>1305.0</v>
+      </c>
+      <c r="I24" s="327" t="n">
+        <v>2956.0</v>
+      </c>
+      <c r="J24" s="328" t="n">
+        <v>2157.0</v>
+      </c>
+      <c r="K24" s="327" t="n">
+        <v>1057.0</v>
+      </c>
+      <c r="L24" s="328" t="n">
+        <v>5288.0</v>
+      </c>
+      <c r="M24" s="327" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="N24" s="328" t="n">
+        <v>1322.0</v>
+      </c>
+      <c r="O24" s="327" t="n">
+        <v>597.0</v>
+      </c>
+      <c r="P24" s="328" t="n">
+        <v>770.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="344" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="343" t="n">
+        <v>408.0</v>
+      </c>
+      <c r="C25" s="344" t="n">
+        <v>1322.0</v>
+      </c>
+      <c r="D25" s="343" t="n">
+        <v>1087.0</v>
+      </c>
+      <c r="E25" s="344" t="n">
+        <v>1298.0</v>
+      </c>
+      <c r="F25" s="343" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="G25" s="344" t="n">
+        <v>629.0</v>
+      </c>
+      <c r="H25" s="343" t="n">
+        <v>1250.0</v>
+      </c>
+      <c r="I25" s="344" t="n">
+        <v>2872.0</v>
+      </c>
+      <c r="J25" s="343" t="n">
+        <v>2035.0</v>
+      </c>
+      <c r="K25" s="344" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="L25" s="343" t="n">
+        <v>5005.0</v>
+      </c>
+      <c r="M25" s="344" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="N25" s="343" t="n">
+        <v>1317.0</v>
+      </c>
+      <c r="O25" s="344" t="n">
+        <v>588.0</v>
+      </c>
+      <c r="P25" s="343" t="n">
+        <v>770.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="359" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="360" t="n">
+        <v>424.0</v>
+      </c>
+      <c r="C26" s="359" t="n">
+        <v>1430.0</v>
+      </c>
+      <c r="D26" s="360" t="n">
+        <v>1123.0</v>
+      </c>
+      <c r="E26" s="359" t="n">
+        <v>1368.0</v>
+      </c>
+      <c r="F26" s="360" t="n">
+        <v>1398.0</v>
+      </c>
+      <c r="G26" s="359" t="n">
+        <v>672.0</v>
+      </c>
+      <c r="H26" s="360" t="n">
+        <v>1366.0</v>
+      </c>
+      <c r="I26" s="359" t="n">
+        <v>3027.0</v>
+      </c>
+      <c r="J26" s="360" t="n">
+        <v>2382.0</v>
+      </c>
+      <c r="K26" s="359" t="n">
+        <v>1112.0</v>
+      </c>
+      <c r="L26" s="360" t="n">
+        <v>5282.0</v>
+      </c>
+      <c r="M26" s="359" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="N26" s="360" t="n">
+        <v>1393.0</v>
+      </c>
+      <c r="O26" s="359" t="n">
+        <v>632.0</v>
+      </c>
+      <c r="P26" s="360" t="n">
+        <v>813.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="376" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="375" t="n">
+        <v>495.0</v>
+      </c>
+      <c r="C27" s="376" t="n">
+        <v>1612.0</v>
+      </c>
+      <c r="D27" s="375" t="n">
+        <v>1183.0</v>
+      </c>
+      <c r="E27" s="376" t="n">
+        <v>1477.0</v>
+      </c>
+      <c r="F27" s="375" t="n">
+        <v>1477.0</v>
+      </c>
+      <c r="G27" s="376" t="n">
+        <v>708.0</v>
+      </c>
+      <c r="H27" s="375" t="n">
+        <v>1457.0</v>
+      </c>
+      <c r="I27" s="376" t="n">
+        <v>3337.0</v>
+      </c>
+      <c r="J27" s="375" t="n">
+        <v>2576.0</v>
+      </c>
+      <c r="K27" s="376" t="n">
+        <v>1178.0</v>
+      </c>
+      <c r="L27" s="375" t="n">
+        <v>6008.0</v>
+      </c>
+      <c r="M27" s="376" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="N27" s="375" t="n">
+        <v>1535.0</v>
+      </c>
+      <c r="O27" s="376" t="n">
+        <v>685.0</v>
+      </c>
+      <c r="P27" s="375" t="n">
+        <v>915.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="391" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="392" t="n">
+        <v>495.0</v>
+      </c>
+      <c r="C28" s="391" t="n">
+        <v>1612.0</v>
+      </c>
+      <c r="D28" s="392" t="n">
+        <v>1181.0</v>
+      </c>
+      <c r="E28" s="391" t="n">
+        <v>1477.0</v>
+      </c>
+      <c r="F28" s="392" t="n">
+        <v>1477.0</v>
+      </c>
+      <c r="G28" s="391" t="n">
+        <v>708.0</v>
+      </c>
+      <c r="H28" s="392" t="n">
+        <v>1457.0</v>
+      </c>
+      <c r="I28" s="391" t="n">
+        <v>3337.0</v>
+      </c>
+      <c r="J28" s="392" t="n">
+        <v>2575.0</v>
+      </c>
+      <c r="K28" s="391" t="n">
+        <v>1178.0</v>
+      </c>
+      <c r="L28" s="392" t="n">
+        <v>6008.0</v>
+      </c>
+      <c r="M28" s="391" t="n">
+        <v>331.0</v>
+      </c>
+      <c r="N28" s="392" t="n">
+        <v>1535.0</v>
+      </c>
+      <c r="O28" s="391" t="n">
+        <v>685.0</v>
+      </c>
+      <c r="P28" s="392" t="n">
+        <v>915.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="408" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="407" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="C29" s="408" t="n">
+        <v>1663.0</v>
+      </c>
+      <c r="D29" s="407" t="n">
+        <v>1222.0</v>
+      </c>
+      <c r="E29" s="408" t="n">
+        <v>1560.0</v>
+      </c>
+      <c r="F29" s="407" t="n">
+        <v>1556.0</v>
+      </c>
+      <c r="G29" s="408" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="H29" s="407" t="n">
+        <v>1549.0</v>
+      </c>
+      <c r="I29" s="408" t="n">
+        <v>3478.0</v>
+      </c>
+      <c r="J29" s="407" t="n">
+        <v>2678.0</v>
+      </c>
+      <c r="K29" s="408" t="n">
+        <v>1224.0</v>
+      </c>
+      <c r="L29" s="407" t="n">
+        <v>6402.0</v>
+      </c>
+      <c r="M29" s="408" t="n">
+        <v>341.0</v>
+      </c>
+      <c r="N29" s="407" t="n">
+        <v>1580.0</v>
+      </c>
+      <c r="O29" s="408" t="n">
+        <v>693.0</v>
+      </c>
+      <c r="P29" s="407" t="n">
+        <v>932.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="423" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="424" t="n">
+        <v>539.0</v>
+      </c>
+      <c r="C30" s="423" t="n">
+        <v>1770.0</v>
+      </c>
+      <c r="D30" s="424" t="n">
+        <v>1275.0</v>
+      </c>
+      <c r="E30" s="423" t="n">
+        <v>1616.0</v>
+      </c>
+      <c r="F30" s="424" t="n">
+        <v>1615.0</v>
+      </c>
+      <c r="G30" s="423" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="H30" s="424" t="n">
+        <v>1597.0</v>
+      </c>
+      <c r="I30" s="423" t="n">
+        <v>3587.0</v>
+      </c>
+      <c r="J30" s="424" t="n">
+        <v>2723.0</v>
+      </c>
+      <c r="K30" s="423" t="n">
+        <v>1237.0</v>
+      </c>
+      <c r="L30" s="424" t="n">
+        <v>6859.0</v>
+      </c>
+      <c r="M30" s="423" t="n">
+        <v>360.0</v>
+      </c>
+      <c r="N30" s="424" t="n">
+        <v>1637.0</v>
+      </c>
+      <c r="O30" s="423" t="n">
+        <v>778.0</v>
+      </c>
+      <c r="P30" s="424" t="n">
+        <v>930.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="440" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="439" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="C31" s="440" t="n">
+        <v>1876.0</v>
+      </c>
+      <c r="D31" s="439" t="n">
+        <v>1325.0</v>
+      </c>
+      <c r="E31" s="440" t="n">
+        <v>1658.0</v>
+      </c>
+      <c r="F31" s="439" t="n">
+        <v>1711.0</v>
+      </c>
+      <c r="G31" s="440" t="n">
+        <v>763.0</v>
+      </c>
+      <c r="H31" s="439" t="n">
+        <v>1686.0</v>
+      </c>
+      <c r="I31" s="440" t="n">
+        <v>3753.0</v>
+      </c>
+      <c r="J31" s="439" t="n">
+        <v>2872.0</v>
+      </c>
+      <c r="K31" s="440" t="n">
+        <v>1327.0</v>
+      </c>
+      <c r="L31" s="439" t="n">
+        <v>7267.0</v>
+      </c>
+      <c r="M31" s="440" t="n">
+        <v>392.0</v>
+      </c>
+      <c r="N31" s="439" t="n">
+        <v>1683.0</v>
+      </c>
+      <c r="O31" s="440" t="n">
+        <v>839.0</v>
+      </c>
+      <c r="P31" s="439" t="n">
+        <v>965.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="455" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="456" t="n">
+        <v>565.0</v>
+      </c>
+      <c r="C32" s="455" t="n">
+        <v>1899.0</v>
+      </c>
+      <c r="D32" s="456" t="n">
+        <v>1319.0</v>
+      </c>
+      <c r="E32" s="455" t="n">
+        <v>1661.0</v>
+      </c>
+      <c r="F32" s="456" t="n">
+        <v>1712.0</v>
+      </c>
+      <c r="G32" s="455" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="H32" s="456" t="n">
+        <v>1697.0</v>
+      </c>
+      <c r="I32" s="455" t="n">
+        <v>3793.0</v>
+      </c>
+      <c r="J32" s="456" t="n">
+        <v>2852.0</v>
+      </c>
+      <c r="K32" s="455" t="n">
+        <v>1336.0</v>
+      </c>
+      <c r="L32" s="456" t="n">
+        <v>7375.0</v>
+      </c>
+      <c r="M32" s="455" t="n">
+        <v>410.0</v>
+      </c>
+      <c r="N32" s="456" t="n">
+        <v>1723.0</v>
+      </c>
+      <c r="O32" s="455" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="P32" s="456" t="n">
+        <v>972.0</v>
       </c>
     </row>
   </sheetData>
@@ -6611,7 +10359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -6620,52 +10368,52 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="466" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="290" t="s">
+      <c r="B1" s="466" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="290" t="s">
+      <c r="C1" s="466" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="290" t="s">
+      <c r="D1" s="466" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="290" t="s">
+      <c r="E1" s="466" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="290" t="s">
+      <c r="F1" s="466" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="290" t="s">
+      <c r="G1" s="466" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="290" t="s">
+      <c r="H1" s="466" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="290" t="s">
+      <c r="I1" s="466" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="290" t="s">
+      <c r="J1" s="466" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="290" t="s">
+      <c r="K1" s="466" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="290" t="s">
+      <c r="L1" s="466" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="290" t="s">
+      <c r="M1" s="466" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="290" t="s">
+      <c r="N1" s="466" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="290" t="s">
+      <c r="O1" s="466" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="290" t="s">
+      <c r="P1" s="466" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7667,6 +11415,556 @@
       </c>
       <c r="P21" s="287" t="n">
         <v>24317.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="303" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="304" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C22" s="303" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D22" s="304" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E22" s="303" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F22" s="304" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G22" s="303" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H22" s="304" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I22" s="303" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J22" s="304" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K22" s="303" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L22" s="304" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M22" s="303" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N22" s="304" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O22" s="303" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P22" s="304" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="320" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="319" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C23" s="320" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D23" s="319" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E23" s="320" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F23" s="319" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G23" s="320" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H23" s="319" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I23" s="320" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J23" s="319" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K23" s="320" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L23" s="319" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M23" s="320" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N23" s="319" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O23" s="320" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P23" s="319" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="335" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="336" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C24" s="335" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D24" s="336" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E24" s="335" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F24" s="336" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G24" s="335" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H24" s="336" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I24" s="335" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J24" s="336" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K24" s="335" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L24" s="336" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M24" s="335" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N24" s="336" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O24" s="335" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P24" s="336" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="352" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="351" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C25" s="352" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D25" s="351" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E25" s="352" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F25" s="351" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G25" s="352" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H25" s="351" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I25" s="352" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J25" s="351" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K25" s="352" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L25" s="351" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M25" s="352" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N25" s="351" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O25" s="352" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P25" s="351" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="367" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="368" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C26" s="367" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D26" s="368" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E26" s="367" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F26" s="368" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G26" s="367" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H26" s="368" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I26" s="367" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J26" s="368" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K26" s="367" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L26" s="368" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M26" s="367" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N26" s="368" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O26" s="367" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P26" s="368" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="384" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="383" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C27" s="384" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D27" s="383" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E27" s="384" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F27" s="383" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G27" s="384" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H27" s="383" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I27" s="384" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J27" s="383" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K27" s="384" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L27" s="383" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M27" s="384" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N27" s="383" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O27" s="384" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P27" s="383" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="399" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="400" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C28" s="399" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D28" s="400" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E28" s="399" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F28" s="400" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G28" s="399" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H28" s="400" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I28" s="399" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J28" s="400" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K28" s="399" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L28" s="400" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M28" s="399" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N28" s="400" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O28" s="399" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P28" s="400" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="416" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="415" t="n">
+        <v>100077.0</v>
+      </c>
+      <c r="C29" s="416" t="n">
+        <v>91222.0</v>
+      </c>
+      <c r="D29" s="415" t="n">
+        <v>81018.0</v>
+      </c>
+      <c r="E29" s="416" t="n">
+        <v>83859.0</v>
+      </c>
+      <c r="F29" s="415" t="n">
+        <v>69448.0</v>
+      </c>
+      <c r="G29" s="416" t="n">
+        <v>77794.0</v>
+      </c>
+      <c r="H29" s="415" t="n">
+        <v>74019.0</v>
+      </c>
+      <c r="I29" s="416" t="n">
+        <v>64240.0</v>
+      </c>
+      <c r="J29" s="415" t="n">
+        <v>47874.0</v>
+      </c>
+      <c r="K29" s="416" t="n">
+        <v>36772.0</v>
+      </c>
+      <c r="L29" s="415" t="n">
+        <v>65336.0</v>
+      </c>
+      <c r="M29" s="416" t="n">
+        <v>19617.0</v>
+      </c>
+      <c r="N29" s="415" t="n">
+        <v>47544.0</v>
+      </c>
+      <c r="O29" s="416" t="n">
+        <v>47194.0</v>
+      </c>
+      <c r="P29" s="415" t="n">
+        <v>24317.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="431" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="432" t="n">
+        <v>108031.0</v>
+      </c>
+      <c r="C30" s="431" t="n">
+        <v>94621.0</v>
+      </c>
+      <c r="D30" s="432" t="n">
+        <v>87909.0</v>
+      </c>
+      <c r="E30" s="431" t="n">
+        <v>89280.0</v>
+      </c>
+      <c r="F30" s="432" t="n">
+        <v>76896.0</v>
+      </c>
+      <c r="G30" s="431" t="n">
+        <v>82847.0</v>
+      </c>
+      <c r="H30" s="432" t="n">
+        <v>83120.0</v>
+      </c>
+      <c r="I30" s="431" t="n">
+        <v>68441.0</v>
+      </c>
+      <c r="J30" s="432" t="n">
+        <v>50797.0</v>
+      </c>
+      <c r="K30" s="431" t="n">
+        <v>40772.0</v>
+      </c>
+      <c r="L30" s="432" t="n">
+        <v>68213.0</v>
+      </c>
+      <c r="M30" s="431" t="n">
+        <v>20460.0</v>
+      </c>
+      <c r="N30" s="432" t="n">
+        <v>47443.0</v>
+      </c>
+      <c r="O30" s="431" t="n">
+        <v>47553.0</v>
+      </c>
+      <c r="P30" s="432" t="n">
+        <v>23950.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="448" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="447" t="n">
+        <v>108031.0</v>
+      </c>
+      <c r="C31" s="448" t="n">
+        <v>94621.0</v>
+      </c>
+      <c r="D31" s="447" t="n">
+        <v>87909.0</v>
+      </c>
+      <c r="E31" s="448" t="n">
+        <v>89280.0</v>
+      </c>
+      <c r="F31" s="447" t="n">
+        <v>76896.0</v>
+      </c>
+      <c r="G31" s="448" t="n">
+        <v>82847.0</v>
+      </c>
+      <c r="H31" s="447" t="n">
+        <v>83120.0</v>
+      </c>
+      <c r="I31" s="448" t="n">
+        <v>68441.0</v>
+      </c>
+      <c r="J31" s="447" t="n">
+        <v>50797.0</v>
+      </c>
+      <c r="K31" s="448" t="n">
+        <v>40772.0</v>
+      </c>
+      <c r="L31" s="447" t="n">
+        <v>68213.0</v>
+      </c>
+      <c r="M31" s="448" t="n">
+        <v>20460.0</v>
+      </c>
+      <c r="N31" s="447" t="n">
+        <v>47443.0</v>
+      </c>
+      <c r="O31" s="448" t="n">
+        <v>47553.0</v>
+      </c>
+      <c r="P31" s="447" t="n">
+        <v>23950.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="463" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="464" t="n">
+        <v>108031.0</v>
+      </c>
+      <c r="C32" s="463" t="n">
+        <v>94621.0</v>
+      </c>
+      <c r="D32" s="464" t="n">
+        <v>87909.0</v>
+      </c>
+      <c r="E32" s="463" t="n">
+        <v>89280.0</v>
+      </c>
+      <c r="F32" s="464" t="n">
+        <v>76896.0</v>
+      </c>
+      <c r="G32" s="463" t="n">
+        <v>82847.0</v>
+      </c>
+      <c r="H32" s="464" t="n">
+        <v>83120.0</v>
+      </c>
+      <c r="I32" s="463" t="n">
+        <v>68441.0</v>
+      </c>
+      <c r="J32" s="464" t="n">
+        <v>50797.0</v>
+      </c>
+      <c r="K32" s="463" t="n">
+        <v>40772.0</v>
+      </c>
+      <c r="L32" s="464" t="n">
+        <v>68213.0</v>
+      </c>
+      <c r="M32" s="463" t="n">
+        <v>20460.0</v>
+      </c>
+      <c r="N32" s="464" t="n">
+        <v>47443.0</v>
+      </c>
+      <c r="O32" s="463" t="n">
+        <v>47553.0</v>
+      </c>
+      <c r="P32" s="464" t="n">
+        <v>23950.0</v>
       </c>
     </row>
   </sheetData>

--- a/estate.xlsx
+++ b/estate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="44">
   <si>
     <t>时间</t>
   </si>
@@ -151,13 +151,16 @@
   <si>
     <t>2021-04-11</t>
   </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="346">
+  <fonts count="358">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1899,8 +1902,68 @@
       <sz val="12.0"/>
       <color indexed="54"/>
     </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <sz val="12.0"/>
+      <color indexed="54"/>
+    </font>
   </fonts>
-  <fills count="229">
+  <fills count="237">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3043,8 +3106,48 @@
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="452">
+  <borders count="468">
     <border>
       <left/>
       <right/>
@@ -6903,13 +7006,149 @@
         <color indexed="8"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="469">
+  <cellXfs count="485">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8403,30 +8642,82 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="443" fillId="224" fontId="339" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="340" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="227" borderId="451" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="451" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="342" fillId="228" borderId="451" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="343" fillId="225" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="451" fillId="227" fontId="341" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="451" fillId="0" fontId="342" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="451" fillId="228" fontId="342" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="225" fontId="343" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="227" borderId="451" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="451" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="345" fillId="228" borderId="451" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="451" fillId="227" fontId="344" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="451" fillId="0" fontId="345" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="451" fillId="228" fontId="345" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="229" fontId="346" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="459" fillId="231" fontId="347" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="459" fillId="0" fontId="348" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="459" fillId="232" fontId="348" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="229" fontId="349" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="459" fillId="231" fontId="350" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="459" fillId="0" fontId="351" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="459" fillId="232" fontId="351" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="235" borderId="467" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="0" borderId="467" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="236" borderId="467" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="233" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="235" borderId="467" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="467" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="236" borderId="467" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -8743,7 +9034,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -8752,52 +9043,52 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="458" t="s">
+      <c r="A1" s="474" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="458" t="s">
+      <c r="B1" s="474" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="458" t="s">
+      <c r="C1" s="474" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="458" t="s">
+      <c r="D1" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="458" t="s">
+      <c r="E1" s="474" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="458" t="s">
+      <c r="F1" s="474" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="458" t="s">
+      <c r="G1" s="474" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="458" t="s">
+      <c r="H1" s="474" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="458" t="s">
+      <c r="I1" s="474" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="458" t="s">
+      <c r="J1" s="474" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="458" t="s">
+      <c r="K1" s="474" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="458" t="s">
+      <c r="L1" s="474" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="458" t="s">
+      <c r="M1" s="474" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="458" t="s">
+      <c r="N1" s="474" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="458" t="s">
+      <c r="O1" s="474" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="458" t="s">
+      <c r="P1" s="474" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10349,6 +10640,56 @@
       </c>
       <c r="P32" s="456" t="n">
         <v>972.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="472" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="471" t="n">
+        <v>578.0</v>
+      </c>
+      <c r="C33" s="472" t="n">
+        <v>1904.0</v>
+      </c>
+      <c r="D33" s="471" t="n">
+        <v>1328.0</v>
+      </c>
+      <c r="E33" s="472" t="n">
+        <v>1674.0</v>
+      </c>
+      <c r="F33" s="471" t="n">
+        <v>1697.0</v>
+      </c>
+      <c r="G33" s="472" t="n">
+        <v>777.0</v>
+      </c>
+      <c r="H33" s="471" t="n">
+        <v>1710.0</v>
+      </c>
+      <c r="I33" s="472" t="n">
+        <v>3795.0</v>
+      </c>
+      <c r="J33" s="471" t="n">
+        <v>2935.0</v>
+      </c>
+      <c r="K33" s="472" t="n">
+        <v>1342.0</v>
+      </c>
+      <c r="L33" s="471" t="n">
+        <v>7517.0</v>
+      </c>
+      <c r="M33" s="472" t="n">
+        <v>417.0</v>
+      </c>
+      <c r="N33" s="471" t="n">
+        <v>1706.0</v>
+      </c>
+      <c r="O33" s="472" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="P33" s="471" t="n">
+        <v>965.0</v>
       </c>
     </row>
   </sheetData>
@@ -10359,7 +10700,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -10368,52 +10709,52 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="466" t="s">
+      <c r="A1" s="482" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="466" t="s">
+      <c r="B1" s="482" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="466" t="s">
+      <c r="C1" s="482" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="466" t="s">
+      <c r="D1" s="482" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="466" t="s">
+      <c r="E1" s="482" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="466" t="s">
+      <c r="F1" s="482" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="466" t="s">
+      <c r="G1" s="482" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="466" t="s">
+      <c r="H1" s="482" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="466" t="s">
+      <c r="I1" s="482" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="466" t="s">
+      <c r="J1" s="482" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="466" t="s">
+      <c r="K1" s="482" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="466" t="s">
+      <c r="L1" s="482" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="466" t="s">
+      <c r="M1" s="482" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="466" t="s">
+      <c r="N1" s="482" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="466" t="s">
+      <c r="O1" s="482" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="466" t="s">
+      <c r="P1" s="482" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11964,6 +12305,56 @@
         <v>47553.0</v>
       </c>
       <c r="P32" s="464" t="n">
+        <v>23950.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="480" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="479" t="n">
+        <v>108031.0</v>
+      </c>
+      <c r="C33" s="480" t="n">
+        <v>94621.0</v>
+      </c>
+      <c r="D33" s="479" t="n">
+        <v>87909.0</v>
+      </c>
+      <c r="E33" s="480" t="n">
+        <v>89280.0</v>
+      </c>
+      <c r="F33" s="479" t="n">
+        <v>76896.0</v>
+      </c>
+      <c r="G33" s="480" t="n">
+        <v>82847.0</v>
+      </c>
+      <c r="H33" s="479" t="n">
+        <v>83120.0</v>
+      </c>
+      <c r="I33" s="480" t="n">
+        <v>68441.0</v>
+      </c>
+      <c r="J33" s="479" t="n">
+        <v>50797.0</v>
+      </c>
+      <c r="K33" s="480" t="n">
+        <v>40772.0</v>
+      </c>
+      <c r="L33" s="479" t="n">
+        <v>68213.0</v>
+      </c>
+      <c r="M33" s="480" t="n">
+        <v>20460.0</v>
+      </c>
+      <c r="N33" s="479" t="n">
+        <v>47443.0</v>
+      </c>
+      <c r="O33" s="480" t="n">
+        <v>47553.0</v>
+      </c>
+      <c r="P33" s="479" t="n">
         <v>23950.0</v>
       </c>
     </row>
